--- a/matlab/experiment/CCC_8.xlsx
+++ b/matlab/experiment/CCC_8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B6A071-AB7C-41D1-A764-9F05824AC7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD05B06-ECDC-4B43-8DD3-38F9B6F1FACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="1344" windowWidth="19812" windowHeight="11616" activeTab="7" xr2:uid="{171E2E3E-2A73-4829-80D1-E97C2F3F4C17}"/>
+    <workbookView xWindow="348" yWindow="1344" windowWidth="19812" windowHeight="11616" activeTab="7" xr2:uid="{171E2E3E-2A73-4829-80D1-E97C2F3F4C17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,19 +409,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.0605784199999999</v>
+        <v>1.31</v>
       </c>
       <c r="B1">
-        <v>0.71904712999999998</v>
+        <v>0.53</v>
       </c>
       <c r="C1">
-        <v>0.87971244999999998</v>
+        <v>0.45</v>
       </c>
       <c r="D1">
-        <v>0.82860774000000004</v>
+        <v>0.78</v>
       </c>
       <c r="E1">
-        <v>0.68687533000000001</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -458,22 +458,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0</v>
+        <v>300.42</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>93.44</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>349.79</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>279.08</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>92.88</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>29.03</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -568,19 +568,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>12.361950972896476</v>
+        <v>9.2604503644563412</v>
       </c>
       <c r="C1">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D1">
-        <v>1.1391217979642182E-3</v>
+        <v>7.2900224276807073</v>
       </c>
       <c r="E1">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -638,7 +638,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>-1.8679166742931541</v>
+        <v>-1.6160241615765498</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -661,7 +661,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>-1.8679166742931541</v>
+        <v>-1.6160241615765498</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
